--- a/Document/Hybrid/Dcloud/Plugin/H5开发之插件开发.xlsx
+++ b/Document/Hybrid/Dcloud/Plugin/H5开发之插件开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="0" windowWidth="27780" windowHeight="20200" tabRatio="632" activeTab="5"/>
+    <workbookView xWindow="4220" yWindow="0" windowWidth="27780" windowHeight="20200" tabRatio="632" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="H5+SDK插件开发_Android" sheetId="1" r:id="rId1"/>
@@ -10291,7 +10291,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="207">
+  <cellStyleXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10499,6 +10499,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10679,7 +10683,7 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="207">
+  <cellStyles count="211">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -10886,6 +10890,10 @@
     <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11417,7 +11425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:Q198"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -13131,7 +13141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T275"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D240" sqref="D240"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -14475,7 +14487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G129"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -19608,7 +19620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G94"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -20072,7 +20086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
